--- a/biology/Zoologie/Cyclemys_dentata/Cyclemys_dentata.xlsx
+++ b/biology/Zoologie/Cyclemys_dentata/Cyclemys_dentata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclemys dentata  ou Tortue-feuille d'Asie[1] est une espèce de tortues de la famille des Geoemydidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclemys dentata  ou Tortue-feuille d'Asie est une espèce de tortues de la famille des Geoemydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie, en Malaisie, aux Philippines, au Brunei, à Singapour et en Thaïlande[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie, en Malaisie, aux Philippines, au Brunei, à Singapour et en Thaïlande.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit dans les forêts tropicales humides, dans les étangs, dans les mares et dans les cours d'eau lents.
 </t>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tortue-feuille d'Asie est active essentiellement à l'aube et au crépuscule[3].
-Elle mesure jusqu'à 13 cm de long (ou jusqu'à 24 cm selon certaines sources[4]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tortue-feuille d'Asie est active essentiellement à l'aube et au crépuscule.
+Elle mesure jusqu'à 13 cm de long (ou jusqu'à 24 cm selon certaines sources).
 Elle a une carapace aplatie , au bord plus ou moins dentelé.  
 Sa couleur est marron-rouille, couleur des feuilles mortes qui lui permet de se cacher facilement. 
 C'est une tortue carnivore qui mange des invertébrés et des charognes mais elle s'accommode si besoin de végétaux variés (figues...). 
@@ -609,9 +627,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle pond jusqu'à 5 nichées par an. Elle creuse un trou est  y dépose en moyenne 4 œufs. Les bébés tortues naissent avec une carapace pourvue d'épines, sans doute pour les protéger des prédateurs, épines qui disparaissent ensuite[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pond jusqu'à 5 nichées par an. Elle creuse un trou est  y dépose en moyenne 4 œufs. Les bébés tortues naissent avec une carapace pourvue d'épines, sans doute pour les protéger des prédateurs, épines qui disparaissent ensuite.
 </t>
         </is>
       </c>
